--- a/_figures/figures_data.xlsx
+++ b/_figures/figures_data.xlsx
@@ -11634,7 +11634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11648,82 +11648,149 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Regulatory Landscape Comparison: US vs EU</t>
+          <t>Regulatory Landscape Comparison: US vs EU vs UK vs China</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>United States (US)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>United Kingdom (UK)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Feature</t>
+          <t>Nutraceutical Definition</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>United States (US)</t>
+          <t>Undefined (Food vs Drug)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>European Union (EU)</t>
+          <t>Undefined (Feed vs VMP)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Undefined (Feed vs VMP)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Undefined (Feed Additive vs VMP)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Nutraceutical Definition</t>
+          <t>Regulatory Body</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Undefined (Food vs Drug)</t>
+          <t>FDA-CVM &amp; AAFCO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Undefined (Feed vs VMP)</t>
+          <t>EFSA &amp; National Agencies</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VMD &amp; FSA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MARA &amp; SAMR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Regulatory Body</t>
+          <t>Disease Claims</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>FDA-CVM &amp; AAFCO</t>
+          <t>Prohibited (Drug only)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>EFSA &amp; National Agencies</t>
+          <t>Prohibited (PARNUTs exception)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prohibited (Drug only)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Restricted by registration class</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Disease Claims</t>
+          <t>Market Entry Speed</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Prohibited (Drug only)</t>
+          <t>Fast (Notification)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Prohibited (PARNUTs exception)</t>
+          <t>Slow (Dossier Approval)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Medium (Route-dependent)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Medium-Slow (Registration dependent)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Market Entry Speed</t>
+          <t>Source: FDA-CVM, EFSA, UK VMD/FSA, MARA filings.</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -11737,6 +11804,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
@@ -11744,6 +11812,16 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13543,7 +13621,14 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Growth of the Senior Pet Wellness Market</t>
+          <t>Pharma Integration Funnel (Relative Integration Potential)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Relative Integration Potential (Index, Trial = 100)</t>
         </is>
       </c>
     </row>
@@ -13576,8 +13661,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2030</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Source: Internal funnel model calibrated with S115 and S116 portfolio pathways.</t>
+        </is>
       </c>
       <c r="B6" s="3" t="n">
         <v>20</v>
@@ -14756,7 +14843,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -15298,7 +15384,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Aker BioMarine</t>
+          <t>Source: Annual Reports/Filing Data (S115, S117, S118, S119, S120), Master Model (S089), Transaction Context (S125).</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -15409,7 +15495,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Brand Loyalty</t>
+          <t>Source: Internal strategy normalization over S089 value pools and benchmark assumptions.</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">

--- a/_figures/figures_data.xlsx
+++ b/_figures/figures_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="600" windowWidth="22520" windowHeight="16380" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6280" yWindow="600" windowWidth="22520" windowHeight="16380" tabRatio="600" firstSheet="31" activeTab="41" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDEX" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,6 +55,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 46" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 47" sheetId="48" state="visible" r:id="rId48"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 48" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 49" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_TABLE_SYNC" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_FIGURE_HARMONIZATION" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 50" sheetId="53" state="visible" r:id="rId53"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -892,7 +896,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Evidence Level (1-10)</v>
+                  <v>Mobility</v>
                 </pt>
               </strCache>
             </strRef>
@@ -909,16 +913,16 @@
               <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>Omega-6/Linoleic</v>
+                  <v>Dogs</v>
                 </pt>
                 <pt idx="1">
-                  <v>Biotin</v>
+                  <v>Cats</v>
                 </pt>
                 <pt idx="2">
-                  <v>Zinc Methionine</v>
+                  <v>Poultry</v>
                 </pt>
                 <pt idx="3">
-                  <v>Astaxanthin</v>
+                  <v>Swine</v>
                 </pt>
               </strCache>
             </strRef>
@@ -930,16 +934,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>9</v>
                 </pt>
                 <pt idx="1">
-                  <v>5</v>
+                  <v>7</v>
                 </pt>
                 <pt idx="2">
-                  <v>6</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="3">
-                  <v>8</v>
+                  <v>1</v>
                 </pt>
               </numCache>
             </numRef>
@@ -954,7 +958,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Est. Value (m)</v>
+                  <v>Behavior</v>
                 </pt>
               </strCache>
             </strRef>
@@ -971,16 +975,16 @@
               <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>Omega-6/Linoleic</v>
+                  <v>Dogs</v>
                 </pt>
                 <pt idx="1">
-                  <v>Biotin</v>
+                  <v>Cats</v>
                 </pt>
                 <pt idx="2">
-                  <v>Zinc Methionine</v>
+                  <v>Poultry</v>
                 </pt>
                 <pt idx="3">
-                  <v>Astaxanthin</v>
+                  <v>Swine</v>
                 </pt>
               </strCache>
             </strRef>
@@ -992,16 +996,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>29</v>
+                  <v>7</v>
                 </pt>
                 <pt idx="1">
-                  <v>14</v>
+                  <v>8</v>
                 </pt>
                 <pt idx="2">
-                  <v>42</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="3">
-                  <v>327</v>
+                  <v>1</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1100,7 +1104,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Evidence Level (1-10)</v>
+                  <v>Total (USDm)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1117,13 +1121,13 @@
               <strCache>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Natural Repellents</v>
+                  <v>Mobility</v>
                 </pt>
                 <pt idx="1">
-                  <v>Garlic/Botanicals</v>
+                  <v>Cognition</v>
                 </pt>
                 <pt idx="2">
-                  <v>Skin Barrier Stacks</v>
+                  <v>Behavior</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1135,13 +1139,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>5</v>
+                  <v>776</v>
                 </pt>
                 <pt idx="1">
-                  <v>3</v>
+                  <v>312</v>
                 </pt>
                 <pt idx="2">
-                  <v>5</v>
+                  <v>239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1156,7 +1160,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Est. Value (m)</v>
+                  <v>Companion/Pet-led (USDm)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1173,13 +1177,13 @@
               <strCache>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Natural Repellents</v>
+                  <v>Mobility</v>
                 </pt>
                 <pt idx="1">
-                  <v>Garlic/Botanicals</v>
+                  <v>Cognition</v>
                 </pt>
                 <pt idx="2">
-                  <v>Skin Barrier Stacks</v>
+                  <v>Behavior</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1191,13 +1195,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>133</v>
+                  <v>714</v>
                 </pt>
                 <pt idx="1">
-                  <v>10</v>
+                  <v>296</v>
                 </pt>
                 <pt idx="2">
-                  <v>36</v>
+                  <v>229</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1932,7 +1936,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Total Value (m)</v>
+                  <v>Ownership Rate (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1947,39 +1951,18 @@
             <strRef>
               <f>'Figure 18'!$A$4:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>Ectoparasite</v>
+                  <v>US</v>
                 </pt>
                 <pt idx="1">
-                  <v>Psych/Calming</v>
+                  <v>Canada</v>
                 </pt>
                 <pt idx="2">
-                  <v>Cognition</v>
-                </pt>
-                <pt idx="3">
-                  <v>Niches</v>
+                  <v>EU</v>
                 </pt>
                 <pt idx="4">
-                  <v>Mobility</v>
-                </pt>
-                <pt idx="5">
-                  <v>Sustainability</v>
-                </pt>
-                <pt idx="6">
-                  <v>Nutrigenomics</v>
-                </pt>
-                <pt idx="7">
-                  <v>Performance/FCR</v>
-                </pt>
-                <pt idx="8">
-                  <v>Immunity</v>
-                </pt>
-                <pt idx="9">
-                  <v>Delivery Systems</v>
-                </pt>
-                <pt idx="10">
-                  <v>Gut Health</v>
+                  <v>Source: APPA (2024), FEDIAF (2024).</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1991,37 +1974,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="11"/>
                 <pt idx="0">
-                  <v>179</v>
+                  <v>71</v>
                 </pt>
                 <pt idx="1">
-                  <v>239</v>
+                  <v>60</v>
                 </pt>
                 <pt idx="2">
-                  <v>312</v>
-                </pt>
-                <pt idx="3">
-                  <v>412</v>
-                </pt>
-                <pt idx="4">
-                  <v>776</v>
-                </pt>
-                <pt idx="5">
-                  <v>786</v>
-                </pt>
-                <pt idx="6">
-                  <v>795</v>
-                </pt>
-                <pt idx="7">
-                  <v>1426</v>
-                </pt>
-                <pt idx="8">
-                  <v>1841</v>
-                </pt>
-                <pt idx="9">
-                  <v>2749</v>
-                </pt>
-                <pt idx="10">
-                  <v>2913</v>
+                  <v>49</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2120,7 +2079,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Market Value (m)</v>
+                  <v>Population (m)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2135,27 +2094,18 @@
             <strRef>
               <f>'Figure 19'!$A$4:$A$10</f>
               <strCache>
-                <ptCount val="7"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>Probiotics</v>
+                  <v>Cats</v>
                 </pt>
                 <pt idx="1">
-                  <v>Seeaweed/Polysaccharides</v>
+                  <v>Dogs</v>
                 </pt>
                 <pt idx="2">
-                  <v>Rumen Protection Tech</v>
-                </pt>
-                <pt idx="3">
-                  <v>Soft Chews Tech</v>
+                  <v>Others</v>
                 </pt>
                 <pt idx="4">
-                  <v>Plasma</v>
-                </pt>
-                <pt idx="5">
-                  <v>Yeast Culture</v>
-                </pt>
-                <pt idx="6">
-                  <v>Phytase</v>
+                  <v>Source: FEDIAF Facts &amp; Figures 2024.</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2167,25 +2117,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="7"/>
                 <pt idx="0">
-                  <v>1590</v>
+                  <v>127</v>
                 </pt>
                 <pt idx="1">
-                  <v>1080</v>
+                  <v>104</v>
                 </pt>
                 <pt idx="2">
-                  <v>920</v>
-                </pt>
-                <pt idx="3">
-                  <v>593</v>
-                </pt>
-                <pt idx="4">
-                  <v>533</v>
-                </pt>
-                <pt idx="5">
-                  <v>484</v>
-                </pt>
-                <pt idx="6">
-                  <v>569</v>
+                  <v>50</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2765,7 +2703,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3670,7 +3608,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>US Cattle (m)</v>
+                  <v>Production Volume (Million Tonnes)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3689,58 +3627,30 @@
             </spPr>
           </marker>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 27'!$A$4:$A$18</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="15"/>
+              <strCache>
+                <ptCount val="7"/>
                 <pt idx="0">
-                  <v>2010</v>
+                  <v>Carp (Freshwater)</v>
                 </pt>
                 <pt idx="1">
-                  <v>2011</v>
+                  <v>Shrimp &amp; Prawns</v>
                 </pt>
                 <pt idx="2">
-                  <v>2012</v>
+                  <v>Tilapia</v>
                 </pt>
                 <pt idx="3">
-                  <v>2013</v>
+                  <v>Catfish</v>
                 </pt>
                 <pt idx="4">
-                  <v>2014</v>
-                </pt>
-                <pt idx="5">
-                  <v>2015</v>
+                  <v>Salmon (Marine)</v>
                 </pt>
                 <pt idx="6">
-                  <v>2016</v>
-                </pt>
-                <pt idx="7">
-                  <v>2017</v>
-                </pt>
-                <pt idx="8">
-                  <v>2018</v>
-                </pt>
-                <pt idx="9">
-                  <v>2019</v>
-                </pt>
-                <pt idx="10">
-                  <v>2020</v>
-                </pt>
-                <pt idx="11">
-                  <v>2021</v>
-                </pt>
-                <pt idx="12">
-                  <v>2022</v>
-                </pt>
-                <pt idx="13">
-                  <v>2023</v>
-                </pt>
-                <pt idx="14">
-                  <v>2024</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Source: FAO SOFIA 2024 [S111].</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -3749,49 +3659,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="15"/>
                 <pt idx="0">
-                  <v>95</v>
+                  <v>24</v>
                 </pt>
                 <pt idx="1">
-                  <v>94.48</v>
+                  <v>9.199999999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>93.95999999999999</v>
+                  <v>5.8</v>
                 </pt>
                 <pt idx="3">
-                  <v>93.44</v>
+                  <v>4.2</v>
                 </pt>
                 <pt idx="4">
-                  <v>92.92</v>
-                </pt>
-                <pt idx="5">
-                  <v>92.40000000000001</v>
-                </pt>
-                <pt idx="6">
-                  <v>91.88</v>
-                </pt>
-                <pt idx="7">
-                  <v>91.36</v>
-                </pt>
-                <pt idx="8">
-                  <v>90.84</v>
-                </pt>
-                <pt idx="9">
-                  <v>90.31999999999999</v>
-                </pt>
-                <pt idx="10">
-                  <v>89.8</v>
-                </pt>
-                <pt idx="11">
-                  <v>89.28</v>
-                </pt>
-                <pt idx="12">
-                  <v>88.76000000000001</v>
-                </pt>
-                <pt idx="13">
-                  <v>88.23999999999999</v>
-                </pt>
-                <pt idx="14">
-                  <v>87.72</v>
+                  <v>3.5</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3890,7 +3770,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Poultry Index</v>
+                  <v>Impact Score (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3909,31 +3789,24 @@
             </spPr>
           </marker>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 28'!$A$4:$A$9</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="6"/>
+              <strCache>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>2018</v>
+                  <v>Fear of Loss / Regret</v>
                 </pt>
                 <pt idx="1">
-                  <v>2019</v>
+                  <v>Love / Bonding</v>
                 </pt>
                 <pt idx="2">
-                  <v>2020</v>
-                </pt>
-                <pt idx="3">
-                  <v>2021</v>
+                  <v>Duty / Responsibility</v>
                 </pt>
                 <pt idx="4">
-                  <v>2022</v>
-                </pt>
-                <pt idx="5">
-                  <v>2023</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Source: Nicotra et al. (2025).</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -3942,22 +3815,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="6"/>
                 <pt idx="0">
-                  <v>100</v>
+                  <v>50</v>
                 </pt>
                 <pt idx="1">
-                  <v>102</v>
+                  <v>30</v>
                 </pt>
                 <pt idx="2">
-                  <v>104</v>
-                </pt>
-                <pt idx="3">
-                  <v>106</v>
-                </pt>
-                <pt idx="4">
-                  <v>108</v>
-                </pt>
-                <pt idx="5">
-                  <v>110.5</v>
+                  <v>20</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3972,9 +3836,6 @@
               <f>'Figure 28'!$C$3</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Bovine Index</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -3992,31 +3853,24 @@
             </spPr>
           </marker>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 28'!$A$4:$A$9</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="6"/>
+              <strCache>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>2018</v>
+                  <v>Fear of Loss / Regret</v>
                 </pt>
                 <pt idx="1">
-                  <v>2019</v>
+                  <v>Love / Bonding</v>
                 </pt>
                 <pt idx="2">
-                  <v>2020</v>
-                </pt>
-                <pt idx="3">
-                  <v>2021</v>
+                  <v>Duty / Responsibility</v>
                 </pt>
                 <pt idx="4">
-                  <v>2022</v>
-                </pt>
-                <pt idx="5">
-                  <v>2023</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Source: Nicotra et al. (2025).</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -4024,24 +3878,6 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="6"/>
-                <pt idx="0">
-                  <v>100</v>
-                </pt>
-                <pt idx="1">
-                  <v>99</v>
-                </pt>
-                <pt idx="2">
-                  <v>98</v>
-                </pt>
-                <pt idx="3">
-                  <v>97</v>
-                </pt>
-                <pt idx="4">
-                  <v>96</v>
-                </pt>
-                <pt idx="5">
-                  <v>94.8</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -4140,7 +3976,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Production 2022 (m tonnes)</v>
+                  <v>Dogs (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4157,10 +3993,10 @@
               <strCache>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>Aquaculture</v>
+                  <v>Chews/Treats</v>
                 </pt>
                 <pt idx="1">
-                  <v>Capture Fisheries</v>
+                  <v>Liquids/Pastes</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4172,10 +4008,10 @@
                 <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <v>94.40000000000001</v>
+                  <v>64</v>
                 </pt>
                 <pt idx="1">
-                  <v>91</v>
+                  <v>10</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4274,7 +4110,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Dogs (%)</v>
+                  <v>Households (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4291,13 +4127,13 @@
               <strCache>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Chews/Treats</v>
+                  <v>Prem (Spare No Expense)</v>
                 </pt>
                 <pt idx="1">
-                  <v>Liquids/Pastes</v>
+                  <v>Value (Pragmatic)</v>
                 </pt>
                 <pt idx="2">
-                  <v>Pills/Powders</v>
+                  <v>Basic (Price Sensitive)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4309,13 +4145,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>64</v>
+                  <v>20</v>
                 </pt>
                 <pt idx="1">
-                  <v>10</v>
+                  <v>50</v>
                 </pt>
                 <pt idx="2">
-                  <v>26</v>
+                  <v>30</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4330,7 +4166,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Cats (%)</v>
+                  <v>Revenue (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4347,13 +4183,13 @@
               <strCache>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Chews/Treats</v>
+                  <v>Prem (Spare No Expense)</v>
                 </pt>
                 <pt idx="1">
-                  <v>Liquids/Pastes</v>
+                  <v>Value (Pragmatic)</v>
                 </pt>
                 <pt idx="2">
-                  <v>Pills/Powders</v>
+                  <v>Basic (Price Sensitive)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4365,13 +4201,13 @@
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>15</v>
+                  <v>48</v>
                 </pt>
                 <pt idx="1">
-                  <v>35</v>
+                  <v>42</v>
                 </pt>
                 <pt idx="2">
-                  <v>50</v>
+                  <v>10</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4385,9 +4221,6 @@
               <f>'Figure 30'!$D$3</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Horses (%)</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -4403,13 +4236,13 @@
               <strCache>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Chews/Treats</v>
+                  <v>Prem (Spare No Expense)</v>
                 </pt>
                 <pt idx="1">
-                  <v>Liquids/Pastes</v>
+                  <v>Value (Pragmatic)</v>
                 </pt>
                 <pt idx="2">
-                  <v>Pills/Powders</v>
+                  <v>Basic (Price Sensitive)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4420,15 +4253,6 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>25</v>
-                </pt>
-                <pt idx="2">
-                  <v>75</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -4595,7 +4419,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4722,7 +4546,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5105,7 +4929,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Generic Glucosamine</v>
+                  <v>Livestock Premix ($50)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -5116,25 +4940,24 @@
             </a:ln>
           </spPr>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 34'!$A$4:$A$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
+              <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2015</v>
+                  <v>Raw Material</v>
                 </pt>
                 <pt idx="1">
-                  <v>2020</v>
+                  <v>Manufacturing</v>
                 </pt>
                 <pt idx="2">
-                  <v>2024</v>
+                  <v>Logistics/Mktg</v>
                 </pt>
                 <pt idx="3">
-                  <v>2030</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Net Margin</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -5143,16 +4966,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>70</v>
+                  <v>30</v>
                 </pt>
                 <pt idx="1">
-                  <v>60</v>
+                  <v>10</v>
                 </pt>
                 <pt idx="2">
-                  <v>45</v>
+                  <v>8</v>
                 </pt>
                 <pt idx="3">
-                  <v>35</v>
+                  <v>2</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5167,7 +4990,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>UC-II Collagen</v>
+                  <v>Pet Supplement ($50)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -5178,25 +5001,24 @@
             </a:ln>
           </spPr>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 34'!$A$4:$A$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
+              <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2015</v>
+                  <v>Raw Material</v>
                 </pt>
                 <pt idx="1">
-                  <v>2020</v>
+                  <v>Manufacturing</v>
                 </pt>
                 <pt idx="2">
-                  <v>2024</v>
+                  <v>Logistics/Mktg</v>
                 </pt>
                 <pt idx="3">
-                  <v>2030</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Net Margin</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -5205,16 +5027,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>5</v>
+                  <v>10</v>
                 </pt>
                 <pt idx="1">
                   <v>15</v>
                 </pt>
                 <pt idx="2">
-                  <v>25</v>
+                  <v>15</v>
                 </pt>
                 <pt idx="3">
-                  <v>30</v>
+                  <v>10</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5228,9 +5050,6 @@
               <f>'Figure 34'!$D$3</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Green Lipped Mussel</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -5240,25 +5059,24 @@
             </a:ln>
           </spPr>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 34'!$A$4:$A$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
+              <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2015</v>
+                  <v>Raw Material</v>
                 </pt>
                 <pt idx="1">
-                  <v>2020</v>
+                  <v>Manufacturing</v>
                 </pt>
                 <pt idx="2">
-                  <v>2024</v>
+                  <v>Logistics/Mktg</v>
                 </pt>
                 <pt idx="3">
-                  <v>2030</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Net Margin</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -5266,18 +5084,6 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
-                <pt idx="0">
-                  <v>15</v>
-                </pt>
-                <pt idx="1">
-                  <v>15</v>
-                </pt>
-                <pt idx="2">
-                  <v>18</v>
-                </pt>
-                <pt idx="3">
-                  <v>20</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -5290,9 +5096,6 @@
               <f>'Figure 34'!$E$3</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Premium Combos</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -5302,25 +5105,24 @@
             </a:ln>
           </spPr>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Figure 34'!$A$4:$A$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
+              <strCache>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2015</v>
+                  <v>Raw Material</v>
                 </pt>
                 <pt idx="1">
-                  <v>2020</v>
+                  <v>Manufacturing</v>
                 </pt>
                 <pt idx="2">
-                  <v>2024</v>
+                  <v>Logistics/Mktg</v>
                 </pt>
                 <pt idx="3">
-                  <v>2030</v>
-                </pt>
-              </numCache>
-            </numRef>
+                  <v>Net Margin</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
@@ -5328,18 +5130,6 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
-                <pt idx="0">
-                  <v>10</v>
-                </pt>
-                <pt idx="1">
-                  <v>10</v>
-                </pt>
-                <pt idx="2">
-                  <v>12</v>
-                </pt>
-                <pt idx="3">
-                  <v>15</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -5436,9 +5226,10 @@
           </spPr>
           <invertIfNegative val="1"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'Figure 35'!$A$4:$A$6</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
                   <v>2015</v>
@@ -5447,10 +5238,10 @@
                   <v>2024</v>
                 </pt>
                 <pt idx="2">
-                  <v>Source: Internal funnel model calibrated with S115 and S116 portfolio pathways.</v>
-                </pt>
-              </strCache>
-            </strRef>
+                  <v>2030</v>
+                </pt>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -5564,7 +5355,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>EBITDA Margin Capture (%)</v>
+                  <v>Vet Channel Net Margin (%)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -5576,21 +5367,22 @@
           </spPr>
           <invertIfNegative val="1"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'Figure 36'!$A$4:$A$6</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Ingredients</v>
+                  <v>2010</v>
                 </pt>
                 <pt idx="1">
-                  <v>Manufacturing</v>
+                  <v>2015</v>
                 </pt>
                 <pt idx="2">
-                  <v>Brand Owner</v>
-                </pt>
-              </strCache>
-            </strRef>
+                  <v>2019</v>
+                </pt>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -5602,7 +5394,7 @@
                   <v>25</v>
                 </pt>
                 <pt idx="1">
-                  <v>15</v>
+                  <v>23</v>
                 </pt>
                 <pt idx="2">
                   <v>20</v>
@@ -5619,9 +5411,6 @@
               <f>'Figure 36'!$C$3</f>
               <strCache>
                 <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Value Added</v>
-                </pt>
               </strCache>
             </strRef>
           </tx>
@@ -5632,21 +5421,22 @@
           </spPr>
           <invertIfNegative val="1"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'Figure 36'!$A$4:$A$6</f>
-              <strCache>
+              <numCache>
+                <formatCode>General</formatCode>
                 <ptCount val="3"/>
                 <pt idx="0">
-                  <v>Ingredients</v>
+                  <v>2010</v>
                 </pt>
                 <pt idx="1">
-                  <v>Manufacturing</v>
+                  <v>2015</v>
                 </pt>
                 <pt idx="2">
-                  <v>Brand Owner</v>
-                </pt>
-              </strCache>
-            </strRef>
+                  <v>2019</v>
+                </pt>
+              </numCache>
+            </numRef>
           </cat>
           <val>
             <numRef>
@@ -5654,15 +5444,6 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
               </numCache>
             </numRef>
           </val>
@@ -6550,7 +6331,7 @@
                   <v>Swedencare</v>
                 </pt>
                 <pt idx="14">
-                  <v>Source: Annual Reports/Filing Data (S115, S117, S118, S119, S120), Master Model (S089), Transaction Context (S125).</v>
+                  <v>Aker BioMarine</v>
                 </pt>
               </strCache>
             </strRef>
@@ -6687,7 +6468,7 @@
                   <v>Swedencare</v>
                 </pt>
                 <pt idx="14">
-                  <v>Source: Annual Reports/Filing Data (S115, S117, S118, S119, S120), Master Model (S089), Transaction Context (S125).</v>
+                  <v>Aker BioMarine</v>
                 </pt>
               </strCache>
             </strRef>
@@ -6824,7 +6605,7 @@
                   <v>Swedencare</v>
                 </pt>
                 <pt idx="14">
-                  <v>Source: Annual Reports/Filing Data (S115, S117, S118, S119, S120), Master Model (S089), Transaction Context (S125).</v>
+                  <v>Aker BioMarine</v>
                 </pt>
               </strCache>
             </strRef>
@@ -6974,7 +6755,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Revenue 2024 (bn)</v>
+                  <v>Estimated 2024 Revenue (USD Billions)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -6991,19 +6772,19 @@
               <strCache>
                 <ptCount val="5"/>
                 <pt idx="0">
+                  <v>Nestlé Purina</v>
+                </pt>
+                <pt idx="1">
+                  <v>Mars Petcare</v>
+                </pt>
+                <pt idx="2">
+                  <v>Hill's</v>
+                </pt>
+                <pt idx="3">
+                  <v>Blue Buffalo</v>
+                </pt>
+                <pt idx="4">
                   <v>Zoetis</v>
-                </pt>
-                <pt idx="1">
-                  <v>Merck AH</v>
-                </pt>
-                <pt idx="2">
-                  <v>Elanco</v>
-                </pt>
-                <pt idx="3">
-                  <v>DSM-Firmenich</v>
-                </pt>
-                <pt idx="4">
-                  <v>Nestle Purina</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7015,19 +6796,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
                 <pt idx="0">
-                  <v>9.300000000000001</v>
+                  <v>22.4</v>
                 </pt>
                 <pt idx="1">
-                  <v>5.9</v>
+                  <v>22</v>
                 </pt>
                 <pt idx="2">
                   <v>4.4</v>
                 </pt>
                 <pt idx="3">
-                  <v>3.3</v>
+                  <v>2.3</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.4</v>
+                  <v>9.300000000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7140,19 +6921,19 @@
               <strCache>
                 <ptCount val="5"/>
                 <pt idx="0">
+                  <v>Nestlé Purina</v>
+                </pt>
+                <pt idx="1">
                   <v>Mars Petcare</v>
-                </pt>
-                <pt idx="1">
-                  <v>Nestle Purina</v>
                 </pt>
                 <pt idx="2">
                   <v>Hill's</v>
                 </pt>
                 <pt idx="3">
-                  <v>General Mills (Blue)</v>
+                  <v>Blue Buffalo (Gen Mills)</v>
                 </pt>
                 <pt idx="4">
-                  <v>Others</v>
+                  <v>Others (Fragmented)</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7164,19 +6945,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
                 <pt idx="0">
-                  <v>20</v>
+                  <v>24.6</v>
                 </pt>
                 <pt idx="1">
-                  <v>19</v>
+                  <v>24.1</v>
                 </pt>
                 <pt idx="2">
-                  <v>5</v>
+                  <v>4.8</v>
                 </pt>
                 <pt idx="3">
-                  <v>4</v>
+                  <v>2.5</v>
                 </pt>
                 <pt idx="4">
-                  <v>52</v>
+                  <v>43.9</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7205,7 +6986,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -7652,7 +7433,7 @@
                   <v>Price Sensitivity (Inv)</v>
                 </pt>
                 <pt idx="3">
-                  <v>Source: Internal strategy normalization over S089 value pools and benchmark assumptions.</v>
+                  <v>Brand Loyalty</v>
                 </pt>
               </strCache>
             </strRef>
@@ -7714,7 +7495,7 @@
                   <v>Price Sensitivity (Inv)</v>
                 </pt>
                 <pt idx="3">
-                  <v>Source: Internal strategy normalization over S089 value pools and benchmark assumptions.</v>
+                  <v>Brand Loyalty</v>
                 </pt>
               </strCache>
             </strRef>
@@ -9806,16 +9587,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>4</col>
-      <colOff>0</colOff>
+      <col>6</col>
+      <colOff>241300</colOff>
       <row>2</row>
-      <rowOff>0</rowOff>
+      <rowOff>165100</rowOff>
     </from>
     <to>
-      <col>15</col>
-      <colOff>152400</colOff>
+      <col>17</col>
+      <colOff>393700</colOff>
       <row>26</row>
-      <rowOff>0</rowOff>
+      <rowOff>165100</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -11529,7 +11310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11543,83 +11324,183 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Special Niches: Efficacy vs Value</t>
+          <t>Immunity solutions build biological resilience for the post-antibiotic era.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Ingredient</t>
+          <t>Primary Species Group</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Evidence Level (1-10)</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Est. Value (m)</t>
+          <t>Behavior</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gut/Immunity</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Performance/FCR</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Omega-6/Linoleic</t>
+          <t>Dogs</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Biotin</t>
+          <t>Cats</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Zinc Methionine</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Astaxanthin</t>
+          <t>Swine</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>327</v>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ruminants</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>Source: Internal Efficacy Analysis.</t>
+          <t>Aquaculture</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Source note</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Simplified synthesis from functional-segmentation model (Figure 18) and portfolio mapping (S116)</t>
         </is>
       </c>
     </row>
@@ -11635,7 +11516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11649,70 +11530,137 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Natural Ectoparasite: Efficacy vs Value</t>
+          <t>Enzymes and yeast cultures drive Feed Conversion Ratios (FCR) in livestock.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Ingredient</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Evidence Level (1-10)</t>
+          <t>Total (USDm)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Est. Value (m)</t>
+          <t>Companion/Pet-led (USDm)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Production/Livestock-led (USDm)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Natural Repellents</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>5</v>
+        <v>776</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>133</v>
+        <v>714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Garlic/Botanicals</t>
+          <t>Cognition</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>10</v>
+        <v>296</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Skin Barrier Stacks</t>
+          <t>Behavior</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>36</v>
+        <v>229</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gut Health</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2913</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1311</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Source: Internal Efficacy Analysis.</t>
+          <t>Immunity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D8" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Performance/FCR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>143</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Source note</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Totals from Figure 18; split shares from working model assumptions retained for simplified view</t>
         </is>
       </c>
     </row>
@@ -12073,138 +12021,90 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Total Revenue Potential by Functional Segment</t>
+          <t>Developed markets prioritize 'Value over Volume' in pet ownership trends.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Segment</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Total Value (m)</t>
+          <t>Ownership Rate (%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Ectoparasite</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Psych/Calming</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>239</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>312</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Niches</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>412</v>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>776</v>
-      </c>
+          <t>Source: APPA (2024), FEDIAF (2024).</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Sustainability</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>786</v>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Nutrigenomics</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>795</v>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Performance/FCR</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1426</v>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Immunity</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1841</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Delivery Systems</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>2749</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Gut Health</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>2913</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Source: Aggregated Segment Analysis.</t>
-        </is>
-      </c>
+      <c r="A16" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12412,98 +12312,74 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Top 7 Power Ingredients/Technologies by Value</t>
+          <t>European demographics show a structural dominance of the feline segment.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Key Ingredient</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Market Value (m)</t>
+          <t>Population (m)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Probiotics</t>
+          <t>Cats</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1590</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Seeaweed/Polysaccharides</t>
+          <t>Dogs</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1080</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Rumen Protection Tech</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>920</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Soft Chews Tech</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>593</v>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Plasma</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>533</v>
-      </c>
+          <t>Source: FEDIAF Facts &amp; Figures 2024.</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Yeast Culture</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>484</v>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Phytase</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>569</v>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Source: Internal Market Sizing.</t>
-        </is>
-      </c>
+      <c r="A12" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13229,148 +13105,118 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>US Cattle Inventory: The 70-Year Low</t>
+          <t>The 'Blue Transformation' drives industrialization and functional additive demand in aqua.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>US Cattle (m)</t>
+          <t>Production Volume (Million Tonnes)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2010</v>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Carp (Freshwater)</t>
+        </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>2011</v>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Shrimp &amp; Prawns</t>
+        </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>94.48</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2012</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Tilapia</t>
+        </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>93.95999999999999</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>2013</v>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Catfish</t>
+        </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>93.44</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>2014</v>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Salmon (Marine)</t>
+        </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>92.92</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>92.40000000000001</v>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>91.88</v>
-      </c>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Source: FAO SOFIA 2024 [S111].</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>91.36</v>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>90.84</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>90.31999999999999</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>89.28</v>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>88.76000000000001</v>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>88.23999999999999</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>87.72</v>
-      </c>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Source: USDA NASS.</t>
-        </is>
-      </c>
+      <c r="A20" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13384,7 +13230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13398,10 +13244,11 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Divergent Production Trends: Poultry vs Bovine</t>
-        </is>
-      </c>
-    </row>
+          <t>Global protein production shifts favor poultry and aquaculture over ruminants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -13410,12 +13257,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Poultry Index</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Bovine Index</t>
+          <t>Bovine</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pigs</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sheep/Goat</t>
         </is>
       </c>
     </row>
@@ -13429,16 +13286,28 @@
       <c r="C4" s="3" t="n">
         <v>100</v>
       </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>99</v>
+        <v>98.95999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -13446,10 +13315,16 @@
         <v>2020</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>98</v>
+        <v>97.92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.8</v>
       </c>
     </row>
     <row r="7">
@@ -13457,10 +13332,16 @@
         <v>2021</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>106</v>
+        <v>106.3</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>97</v>
+        <v>96.88</v>
+      </c>
+      <c r="D7" t="n">
+        <v>94.66</v>
+      </c>
+      <c r="E7" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="8">
@@ -13468,10 +13349,16 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>108</v>
+        <v>108.4</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>96</v>
+        <v>95.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -13484,14 +13371,39 @@
       <c r="C9" s="3" t="n">
         <v>94.8</v>
       </c>
-    </row>
+      <c r="D9" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>Source: FAO, OECD-FAO Agricultural Outlook.</t>
-        </is>
-      </c>
-    </row>
+          <t>Source: FAO SOFIA 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -13593,7 +13505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13607,46 +13519,87 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>The Blue Transformation: Aquaculture vs Capture</t>
+          <t>Palatability and format dictate compliance, which becomes an efficacy proxy.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Production 2022 (m tonnes)</t>
+          <t>Dogs (%)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cats (%)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Horses (%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Aquaculture</t>
+          <t>Chews/Treats</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>94.40000000000001</v>
+        <v>64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Capture Fisheries</t>
+          <t>Liquids/Pastes</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pills/Powders</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Source: FAO SOFIA 2024.</t>
+      <c r="A7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Source: Grand View Research.</t>
         </is>
       </c>
     </row>
@@ -13676,84 +13629,74 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Preferred Delivery Formats by Species</t>
+          <t>High-spending households drive the majority of revenue in pet wellness.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Format</t>
+          <t>Segment</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Dogs (%)</t>
+          <t>Households (%)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Cats (%)</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Horses (%)</t>
-        </is>
-      </c>
+          <t>Revenue (%)</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Chews/Treats</t>
+          <t>Prem (Spare No Expense)</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Liquids/Pastes</t>
+          <t>Value (Pragmatic)</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Pills/Powders</t>
+          <t>Basic (Price Sensitive)</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>75</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Source: Grand View Research.</t>
+          <t>Source: Internal Customer Segmentation.</t>
         </is>
       </c>
     </row>
@@ -13783,7 +13726,7 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Preventive Health Wallet Allocation</t>
+          <t>Nutraceuticals have captured a dominant share of the preventive wallet.</t>
         </is>
       </c>
     </row>
@@ -14040,7 +13983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14054,10 +13997,11 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Evolution of Mobility Ingredients (Share %)</t>
-        </is>
-      </c>
-    </row>
+          <t>Category premiumization evolves from generic actives to IP-backed solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -14066,22 +14010,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Generic Glucosamine</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>UC-II Collagen</t>
+          <t>UC-II</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Green Lipped Mussel</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Premium Combos</t>
+          <t>Premium</t>
         </is>
       </c>
     </row>
@@ -14153,13 +14097,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>Source: Nutrition Business Journal.</t>
-        </is>
-      </c>
-    </row>
+          <t>Source: NBJ 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -14252,7 +14217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14266,76 +14231,65 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Value Chain Economics: Margin Capture</t>
+          <t>Channel economics favor omnichannel dominance but penalize pure-play DTC.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Stage</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>EBITDA Margin Capture (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Value Added</t>
-        </is>
-      </c>
+          <t>Vet Channel Net Margin (%)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Ingredients</t>
-        </is>
+      <c r="A4" s="3" t="n">
+        <v>2010</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>IP/Science</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
+      <c r="A5" s="3" t="n">
+        <v>2015</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Scale/Form</t>
-        </is>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Brand Owner</t>
-        </is>
+      <c r="A6" s="3" t="n">
+        <v>2019</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Consumer Trust</t>
-        </is>
+      <c r="C6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Source: L.E.K. Consulting.</t>
+      <c r="A8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Source: Industry Interviews.</t>
         </is>
       </c>
     </row>
@@ -14830,10 +14784,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14844,7 +14798,7 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Revenue Comparison: Pharma vs Nutrition</t>
+          <t>2024 Competitive Landscape: Revenue Scale Comparison</t>
         </is>
       </c>
     </row>
@@ -14856,64 +14810,184 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Revenue 2024 (bn)</t>
+          <t>Estimated 2024 Revenue (USD Billions)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Segment</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Zoetis</t>
+          <t>Nestlé Purina</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>9.300000000000001</v>
+        <v>22.4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Merck AH</t>
+          <t>Mars Petcare</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5.9</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Elanco</t>
+          <t>Hill's</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
         <v>4.4</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>DSM-Firmenich</t>
+          <t>Blue Buffalo</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Nestle Purina</t>
+          <t>Zoetis</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>22.4</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Merck AH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Source: Company Filings.</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Boehringer Ingelheim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elanco</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Novonesis</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phibro</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Source: Zoetis 10-K [S115]; DSM-Firmenich Annual [S117]; Swedencare Annual [S118]; Virbac Annual [S119]; Dechra Annual [S120].</t>
         </is>
       </c>
     </row>
@@ -14929,7 +15003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14943,7 +15017,7 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Capability Matrix: Continuum of Care Coverage</t>
+          <t>Capability matrix across the Continuum of Care.</t>
         </is>
       </c>
     </row>
@@ -14960,24 +15034,39 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>Merck AH</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Nestle</t>
+          <t>Elanco</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Virbac</t>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mars Petcare</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nestle Purina</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hill's</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Therapeutics (Rx)</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -14987,10 +15076,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n"/>
+      <c r="H4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -15003,29 +15093,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="E5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Pharma (Rx)</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
+          <t>Feed Additives</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -15034,45 +15118,83 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Nutraceuticals</t>
+          <t>Pet Supplements</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Pet Food</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="n">
+          <t>Pet Food (Diets)</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Diagnostics / Data</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Source: Corporate Strategy Analysis.</t>
+      <c r="A10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Source: Zoetis 10-K [S115]; DSM-Firmenich Annual [S117]; Swedencare Annual [S118]; Virbac Annual [S119]; Dechra Annual [S120].</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15223,7 @@
     <row r="1" ht="19" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Global Pet Nutrition Market Share</t>
+          <t>Pet category structure and disruption long-tail dynamics.</t>
         </is>
       </c>
     </row>
@@ -15120,21 +15242,21 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Mars Petcare</t>
+          <t>Nestlé Purina</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>20</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Nestle Purina</t>
+          <t>Mars Petcare</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>19</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="6">
@@ -15144,33 +15266,33 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>General Mills (Blue)</t>
+          <t>Blue Buffalo (Gen Mills)</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Others (Fragmented)</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>52</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>Source: Euromonitor.</t>
+          <t>Source: Euromonitor 2024 [S105].</t>
         </is>
       </c>
     </row>
@@ -16698,12 +16820,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Figure II.1 (Simplified): Functional Needs by Species</t>
+          <t>Functional needs across companion and production species.</t>
         </is>
       </c>
     </row>
@@ -16900,12 +17022,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Figure II.12 (Simplified): Comparative Economic Value by Segment</t>
+          <t>Comparative economic value by functional segment and primary sector.</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17174,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -17120,6 +17242,2772 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Estimated 2024 Revenue (USD Billions)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nestlé Purina</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mars Petcare</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hill's</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Blue Buffalo</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Zoetis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Merck AH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Boehringer Ingelheim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elanco</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Novonesis</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phibro</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Source: Zoetis 10-K [S115]; DSM-Firmenich Annual [S117]; Swedencare Annual [S118]; Virbac Annual [S119]; Dechra Annual [S120].</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Extracted from DOCX</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nutraceuticals_Whitepaper_20260209-12-20.docx</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2026-02-09 13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>table_no</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cols</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>first_cell</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>csv_file</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>table_01.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>table_02.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Investor Platform</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>table_03.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>table_04.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Geography</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>table_05.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acronym / Term</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>table_06.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>table_07.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>table_08.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Table ID</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>table_09.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Figure ID</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>table_10.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>table_11.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>table_12.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>figure_no</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>doc_caption_title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>image_file</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>renderer_source_tab</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>harmonized_tab</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>section_file</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>renderer_module</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Global corporate, startup, and investor landscape by region.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Global_Antigravity_Landscape_Final.png</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Figure 46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Figure 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01_executive_summary.md</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>global_landscape_exec_summary_fig_46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Regulatory divergence creates structural barriers to entry for non-compliant actors.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Table_US_vs_EU.png</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Figure 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Figure 2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>regulatory_landscape_comparison_fig_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Regulatory timeline of post-antibiotic and compliance-driven substitution.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Regulatory_Timeline_RightArrow.png</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Figure 2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Figure 3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>regulatory_timeline_right_arrow_fig_02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Regulatory pathways dictate unit economics and allowable claims.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Figure_I_3_Regulatory_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Figure 3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Figure 4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>regulatory_pathways_matrix_fig_03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R&amp;D intensity correlates directly with EBITDA margin expansion/premium.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Figure_II_0_1_Innovation_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Figure 5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Figure 5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>innovation_premium_matrix_fig_05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Structural bifurcation splits the market into Emotional (Pet) and ROI (Livestock) economies.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Figure_II_0_2_Market_Bifurcation.png</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Figure 6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Figure 6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>market_bifurcation_economics_fig_06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Functional needs across companion and production species.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Figure_II_1_Simplified.png</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Figure 47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Figure 7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>functional_needs_simplified_fig_47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comparative economic value by functional segment and primary sector.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Figure_II_12_Simplified.png</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Figure 48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Figure 8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>economic_value_simplified_fig_48</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Efficacy levels in Mobility define market positioning and pricing power.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Figure_II_1_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Figure 7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Figure 9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>mobility_matrix_fig_07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cognitive support monetizes the Silver Economy via neuro-preservation.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Figure_II_4_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Figure 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Figure 10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>cognitive_matrix_fig_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Non-sedative anxiolysis replaces pharmacological interventions in behavior management.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Figure_II_5_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Figure 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Figure 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>behavioral_matrix_fig_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gut Health strategy shifts from generic digestion to precision microbiome modulation.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Figure_II_2_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Figure 8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Figure 12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>gut_health_matrix_fig_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Immunity solutions build biological resilience for the post-antibiotic era.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Figure_II_3_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Figure 9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Figure 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>immunity_matrix_fig_09</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Enzymes and yeast cultures drive Feed Conversion Ratios (FCR) in livestock.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Figure_II_6_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Figure 12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Figure 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>performance_fcr_matrix_fig_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gene-expression data constructs a defensible moat of validation around ingredients.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Figure_II_9_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Figure 15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Figure 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nutrigenomics_matrix_fig_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Advanced delivery formats ensure bioavailability and maximize compliance.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Figure_II_10_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Figure 16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Figure 16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>delivery_systems_matrix_fig_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sustainability metrics are becoming procurement-critical in livestock value chains.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Figure_II_11_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Figure 17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Figure 17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>sustainability_matrix_fig_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Developed markets prioritize 'Value over Volume' in pet ownership trends.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Figure1_Pet_Ownership.png</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Figure 20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Figure 18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>pet_ownership_rates_fig_20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>European demographics show a structural dominance of the feline segment.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Figure2_EU_Pet_Pop.png</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Figure 21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Figure 19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>eu_pet_population_fig_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Feline segment growth outpaces canine due to urbanization constraints.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Figure3_EU_Growth.png</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Figure 22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Figure 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>eu_pet_growth_fig_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>APAC is emerging as the primary volume engine for the next decade.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Figure4_Regional_Market.png</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Figure 23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Figure 21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>regional_market_size_fig_23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Global protein production shifts favor poultry and aquaculture over ruminants.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Figure9_Livestock_Trends.png</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Figure 28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Figure 22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>livestock_trends_fig_28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Probiotics volume share reflects poultry and swine dominance.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Figure5_Probiotics_Share.png</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Figure 24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Figure 23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>probiotics_share_fig_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Disease outbreaks act as catalysts for immune-modulating additive demand.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Figure6_Poultry_HPAI.png</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Figure 25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Figure 24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>hpai_impact_fig_25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Regulatory pressure drives structural contraction in Western swine herds.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Figure7_Swine_Decline.png</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Figure 26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Figure 25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>swine_decline_fig_26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Western de-ruminization shifts value from herd size to efficiency-per-head.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Figure8_Cattle_Inventory.png</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Figure 27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Figure 26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>cattle_inventory_fig_27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The 'Blue Transformation' drives industrialization and functional additive demand in aqua.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Figure11_Aquaculture_Production.png</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Figure 29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Figure 27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>aquaculture_production_fig_29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Purchasing psychology is driven more by fear of loss than aspirational health.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Figure14_Psychology.png</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Figure 33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Figure 28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>purchase_psychology_fig_33</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Palatability and format dictate compliance, which becomes an efficacy proxy.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Figure11_Formats.png</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Figure 30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Figure 29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>delivery_formats_fig_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>High-spending households drive the majority of revenue in pet wellness.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Figure13_Segmentation.png</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Figure 32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Figure 30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>consumer_segmentation_fig_32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nutraceuticals have captured a dominant share of the preventive wallet.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Figure12_Wallet.png</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Figure 31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Figure 31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>preventive_wallet_fig_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Category premiumization evolves from generic actives to IP-backed solutions.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Figure15_Mobility_Evo.png</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Figure 34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Figure 32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>mobility_evolution_fig_34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Earlier lifecycle targeting expands customer lifetime value.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Figure16_Senior_Growth.png</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Figure 35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Figure 33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>senior_wellness_growth_fig_35</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pricing power erodes as products move from IP owners to generic retailers.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Figure19_Value_Waterfall.png</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Figure 38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Figure 34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>value_waterfall_fig_38</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Margin capture shifts upstream to IP holders and downstream to specialized CDMOs.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Figure33_Smile_Curve.png</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Figure 36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Figure 35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>value_chain_smile_curve_fig_36</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Channel economics favor omnichannel dominance but penalize pure-play DTC.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Figure18_Channel_Economics.png</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Figure 37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Figure 36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>channel_economics_fig_37</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Incumbents use nutraceuticals as a low-cost acquisition funnel for future banking.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Figure21_Pharma_Funnel.png</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Figure 40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Figure 37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>pharma_funnel_fig_40</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strategic categorization defines the risk-reward profile for market entrants.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Figure20_Risk_Reward.png</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Figure 39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Figure 38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>risk_reward_map_fig_39</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M&amp;A valuation matrix favors de-risked assets over internal R&amp;D development.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Figure_MA_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Figure 45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Figure 39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ma_matrix_fig_45</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strategic opportunity funnel from broad TAM to executable SOM.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Figure_TAM_SAM_SOM.png</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Figure 4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Figure 40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>tam_sam_som_funnel_fig_04b</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Figure_IV_5_Revenue_Comparison.png</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Figure 41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Figure 41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>revenue_comparison_fig_41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Capability matrix across the Continuum of Care.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Figure_IV_6_Capability_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Figure 42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Figure 42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>capability_matrix_fig_42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pet category structure and disruption long-tail dynamics.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Figure_IV_3_Pet.png</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Figure 43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Figure 43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>pet_market_structure_fig_43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Margin ladder by value-chain position and model quality.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Figure_IV_4_Margins.png</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Figure 44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Figure 44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>margin_ladder_fig_44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strategic capital-allocation matrix for risk/reward positioning.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Figure_IV_5_Strategic_matrix.png</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Figure 45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Figure 45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>strategic_matrix_fig_45b</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Opportunity matrix for post-commodity technology bets.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Opportunity_Matrix.png</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Figure 44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Figure 46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>INDIRECT</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>04_part_iii_value_chain.md</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>opportunity_matrix_fig_44b</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Functional needs across companion and production species.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Figure_II_1_Simplified.png</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Figure 47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Figure 47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>05_appendices.md</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>functional_needs_simplified_fig_47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Comparative economic value by functional segment and primary sector.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Figure_II_12_Simplified.png</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Figure 48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Figure 48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>05_appendices.md</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>economic_value_simplified_fig_48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Figure_IV_5_Revenue_Comparison.png</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Figure 49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Figure 49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>DOCX_APPEND</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2024 Competitive Landscape: Revenue Scale Comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Estimated 2024 Revenue (USD Billions)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nestlé Purina</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mars Petcare</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hill's</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Blue Buffalo</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pet Food &amp; CPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Zoetis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Merck AH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Boehringer Ingelheim</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elanco</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pharma &amp; Animal Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Novonesis</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phibro</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Feed &amp; Specialty Inputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Source: Zoetis 10-K [S115]; DSM-Firmenich Annual [S117]; Swedencare Annual [S118]; Virbac Annual [S119]; Dechra Annual [S120].</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/_figures/figures_data.xlsx
+++ b/_figures/figures_data.xlsx
@@ -59,6 +59,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_TABLE_SYNC" sheetId="51" state="visible" r:id="rId51"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_FIGURE_HARMONIZATION" sheetId="52" state="visible" r:id="rId52"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 50" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure Cattle Inventory" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2703,7 +2704,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4419,7 +4420,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4546,7 +4547,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6986,7 +6987,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -13230,7 +13231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13248,7 +13249,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -13378,7 +13378,6 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
@@ -13386,24 +13385,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -13983,7 +13964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14001,7 +13982,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -14097,7 +14077,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
@@ -14105,26 +14084,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -20011,6 +19970,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Global Cattle Inventory: The Western Contraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LATAM_scaled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>India_scaled</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="n">
+        <v>94.44285714285715</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77.57142857142857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.10714285714285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.03571428571428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93.88571428571429</v>
+      </c>
+      <c r="C6" t="n">
+        <v>77.14285714285714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.21428571428572</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19.07142857142857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="n">
+        <v>93.32857142857142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76.71428571428571</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.32142857142857</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.10714285714286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92.77142857142857</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.28571428571429</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.42857142857143</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.14285714285714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="n">
+        <v>92.21428571428572</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75.85714285714286</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.53571428571428</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.17857142857143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="n">
+        <v>91.65714285714286</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75.42857142857143</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.64285714285715</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.21428571428572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90.54285714285714</v>
+      </c>
+      <c r="C12" t="n">
+        <v>74.57142857142857</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.85714285714285</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.28571428571428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89.98571428571429</v>
+      </c>
+      <c r="C13" t="n">
+        <v>74.14285714285714</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35.96428571428572</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19.32142857142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89.42857142857143</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73.71428571428571</v>
+      </c>
+      <c r="D14" t="n">
+        <v>36.07142857142857</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.35714285714286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="n">
+        <v>88.87142857142857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.28571428571429</v>
+      </c>
+      <c r="D15" t="n">
+        <v>36.17857142857143</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.39285714285714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88.31428571428572</v>
+      </c>
+      <c r="C16" t="n">
+        <v>72.85714285714286</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36.28571428571428</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19.42857142857143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B17" t="n">
+        <v>87.75714285714287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>72.42857142857143</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36.39285714285715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19.46428571428572</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>72</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Source: Figure8_Cattle_Inventory.csv [S071], scaled series for LATAM/India.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/_figures/figures_data.xlsx
+++ b/_figures/figures_data.xlsx
@@ -20638,6 +20638,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -20684,14 +20685,14 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Price Sensitivity (Inv)</t>
+          <t>Price Sensitivity</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>8</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">

--- a/_figures/figures_data.xlsx
+++ b/_figures/figures_data.xlsx
@@ -55,11 +55,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 46" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 47" sheetId="48" state="visible" r:id="rId48"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 48" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 49" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_TABLE_SYNC" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_FIGURE_HARMONIZATION" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 50" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure Cattle Inventory" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_TABLE_SYNC" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCX_FIGURE_HARMONIZATION" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 50" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure Cattle Inventory" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure 49" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17210,221 +17210,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Estimated 2024 Revenue (USD Billions)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Segment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nestlé Purina</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pet Food &amp; CPG</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mars Petcare</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>22</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pet Food &amp; CPG</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hill's</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pet Food &amp; CPG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Blue Buffalo</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pet Food &amp; CPG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Zoetis</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Pharma &amp; Animal Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Merck AH</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pharma &amp; Animal Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Boehringer Ingelheim</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pharma &amp; Animal Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Elanco</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pharma &amp; Animal Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DSM-Firmenich</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Feed &amp; Specialty Inputs</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Novonesis</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Feed &amp; Specialty Inputs</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Phibro</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Feed &amp; Specialty Inputs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Source: Zoetis 10-K [S115]; DSM-Firmenich Annual [S117]; Swedencare Annual [S118]; Virbac Annual [S119]; Dechra Annual [S120].</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17734,7 +17519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19755,7 +19540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19970,7 +19755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20277,6 +20062,481 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>Source: Figure8_Cattle_Inventory.csv [S071], scaled series for LATAM/India.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Actor Ecosystem by Strategic Group (Logo-based map)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Logo_Slug</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pharma / Animal Health</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zoetis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>zoetis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pharma / Animal Health</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elanco</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>elanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pharma / Animal Health</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dechra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dechra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pharma / Animal Health</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Virbac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>virbac</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pharma / Animal Health</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vetoquinol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vetoquinol</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pet Nutrition &amp; Retail</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mars Petcare</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mars_petcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pet Nutrition &amp; Retail</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nestle Purina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nestle_purina</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pet Nutrition &amp; Retail</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hill's</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hill_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pet Nutrition &amp; Retail</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chewy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>chewy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pet Nutrition &amp; Retail</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Petco</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>petco</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Feed &amp; Ingredient Tech</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>dsm_firmenich</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Feed &amp; Ingredient Tech</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Novonesis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>novonesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Feed &amp; Ingredient Tech</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phibro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>phibro</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Feed &amp; Ingredient Tech</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Feed &amp; Ingredient Tech</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Evonik</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>evonik</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nutraceutical Specialists</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Swedencare</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>swedencare</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nutraceutical Specialists</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nutramax</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>nutramax</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nutraceutical Specialists</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FoodScience</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>foodscience</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nutraceutical Specialists</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>YuMOVE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>yumove</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nutraceutical Specialists</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AnimalBiome</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>animalbiome</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Investor Platforms</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EQT Group</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>eqt_group</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Investor Platforms</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gryphon Investors</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>gryphon_investors</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Investor Platforms</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cinven</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cinven</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Investor Platforms</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Anterra Capital</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>anterra_capital</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Investor Platforms</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Aqua-Spark</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>aqua_spark</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Source: Internal platform mapping synthesis from Table B.1 and Table C.1</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20898,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
